--- a/natmiOut/OldD7/LR-pairs_lrc2p/Pdpn-Clec1b.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Pdpn-Clec1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Clec1b</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>63.6508280782515</v>
+        <v>3.692503333333333</v>
       </c>
       <c r="H2">
-        <v>63.6508280782515</v>
+        <v>11.07751</v>
       </c>
       <c r="I2">
-        <v>0.8520548041669491</v>
+        <v>0.04591661516224661</v>
       </c>
       <c r="J2">
-        <v>0.8520548041669491</v>
+        <v>0.04591661516224662</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.81280804284362</v>
+        <v>2.080793333333334</v>
       </c>
       <c r="N2">
-        <v>1.81280804284362</v>
+        <v>6.242380000000001</v>
       </c>
       <c r="O2">
-        <v>0.5819821510918025</v>
+        <v>0.4806332454150903</v>
       </c>
       <c r="P2">
-        <v>0.5819821510918025</v>
+        <v>0.4806332454150904</v>
       </c>
       <c r="Q2">
-        <v>115.3867330739108</v>
+        <v>7.683336319311112</v>
       </c>
       <c r="R2">
-        <v>115.3867330739108</v>
+        <v>69.15002687380002</v>
       </c>
       <c r="S2">
-        <v>0.4958806877771856</v>
+        <v>0.02206905176390633</v>
       </c>
       <c r="T2">
-        <v>0.4958806877771856</v>
+        <v>0.02206905176390634</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,309 +584,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>63.6508280782515</v>
+        <v>3.692503333333333</v>
       </c>
       <c r="H3">
-        <v>63.6508280782515</v>
+        <v>11.07751</v>
       </c>
       <c r="I3">
-        <v>0.8520548041669491</v>
+        <v>0.04591661516224661</v>
       </c>
       <c r="J3">
-        <v>0.8520548041669491</v>
+        <v>0.04591661516224662</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.30207793680847</v>
+        <v>0.6104986666666666</v>
       </c>
       <c r="N3">
-        <v>1.30207793680847</v>
+        <v>1.831496</v>
       </c>
       <c r="O3">
-        <v>0.4180178489081974</v>
+        <v>0.141016385808739</v>
       </c>
       <c r="P3">
-        <v>0.4180178489081974</v>
+        <v>0.141016385808739</v>
       </c>
       <c r="Q3">
-        <v>82.87833890028035</v>
+        <v>2.254268361662222</v>
       </c>
       <c r="R3">
-        <v>82.87833890028035</v>
+        <v>20.28841525496</v>
       </c>
       <c r="S3">
-        <v>0.3561741163897635</v>
+        <v>0.006474995118750763</v>
       </c>
       <c r="T3">
-        <v>0.3561741163897635</v>
+        <v>0.006474995118750765</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.11129382043514</v>
+        <v>3.692503333333333</v>
       </c>
       <c r="H4">
-        <v>4.11129382043514</v>
+        <v>11.07751</v>
       </c>
       <c r="I4">
-        <v>0.05503538220645064</v>
+        <v>0.04591661516224661</v>
       </c>
       <c r="J4">
-        <v>0.05503538220645064</v>
+        <v>0.04591661516224662</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.81280804284362</v>
+        <v>1.503125</v>
       </c>
       <c r="N4">
-        <v>1.81280804284362</v>
+        <v>4.509375</v>
       </c>
       <c r="O4">
-        <v>0.5819821510918025</v>
+        <v>0.3472001930423448</v>
       </c>
       <c r="P4">
-        <v>0.5819821510918025</v>
+        <v>0.347200193042345</v>
       </c>
       <c r="Q4">
-        <v>7.452986504178096</v>
+        <v>5.550294072916667</v>
       </c>
       <c r="R4">
-        <v>7.452986504178096</v>
+        <v>49.95264665625</v>
       </c>
       <c r="S4">
-        <v>0.03202961012266966</v>
+        <v>0.01594225764818308</v>
       </c>
       <c r="T4">
-        <v>0.03202961012266966</v>
+        <v>0.01594225764818309</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>4.11129382043514</v>
+        <v>3.692503333333333</v>
       </c>
       <c r="H5">
-        <v>4.11129382043514</v>
+        <v>11.07751</v>
       </c>
       <c r="I5">
-        <v>0.05503538220645064</v>
+        <v>0.04591661516224661</v>
       </c>
       <c r="J5">
-        <v>0.05503538220645064</v>
+        <v>0.04591661516224662</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.30207793680847</v>
+        <v>0.1348576666666667</v>
       </c>
       <c r="N5">
-        <v>1.30207793680847</v>
+        <v>0.404573</v>
       </c>
       <c r="O5">
-        <v>0.4180178489081974</v>
+        <v>0.03115017573382577</v>
       </c>
       <c r="P5">
-        <v>0.4180178489081974</v>
+        <v>0.03115017573382578</v>
       </c>
       <c r="Q5">
-        <v>5.3532249753256</v>
+        <v>0.4979623836922223</v>
       </c>
       <c r="R5">
-        <v>5.3532249753256</v>
+        <v>4.48166145323</v>
       </c>
       <c r="S5">
-        <v>0.02300577208378098</v>
+        <v>0.001430310631406431</v>
       </c>
       <c r="T5">
-        <v>0.02300577208378098</v>
+        <v>0.001430310631406431</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.94061760465162</v>
+        <v>64.06146633333334</v>
       </c>
       <c r="H6">
-        <v>6.94061760465162</v>
+        <v>192.184399</v>
       </c>
       <c r="I6">
-        <v>0.09290981362660017</v>
+        <v>0.7966101668218448</v>
       </c>
       <c r="J6">
-        <v>0.09290981362660017</v>
+        <v>0.7966101668218449</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.81280804284362</v>
+        <v>2.080793333333334</v>
       </c>
       <c r="N6">
-        <v>1.81280804284362</v>
+        <v>6.242380000000001</v>
       </c>
       <c r="O6">
-        <v>0.5819821510918025</v>
+        <v>0.4806332454150903</v>
       </c>
       <c r="P6">
-        <v>0.5819821510918025</v>
+        <v>0.4806332454150904</v>
       </c>
       <c r="Q6">
-        <v>12.58200741601448</v>
+        <v>133.2986720699578</v>
       </c>
       <c r="R6">
-        <v>12.58200741601448</v>
+        <v>1199.68804862962</v>
       </c>
       <c r="S6">
-        <v>0.05407185319194723</v>
+        <v>0.3828773298102398</v>
       </c>
       <c r="T6">
-        <v>0.05407185319194723</v>
+        <v>0.3828773298102399</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.94061760465162</v>
+        <v>64.06146633333334</v>
       </c>
       <c r="H7">
-        <v>6.94061760465162</v>
+        <v>192.184399</v>
       </c>
       <c r="I7">
-        <v>0.09290981362660017</v>
+        <v>0.7966101668218448</v>
       </c>
       <c r="J7">
-        <v>0.09290981362660017</v>
+        <v>0.7966101668218449</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>1.30207793680847</v>
+        <v>0.6104986666666666</v>
       </c>
       <c r="N7">
-        <v>1.30207793680847</v>
+        <v>1.831496</v>
       </c>
       <c r="O7">
-        <v>0.4180178489081974</v>
+        <v>0.141016385808739</v>
       </c>
       <c r="P7">
-        <v>0.4180178489081974</v>
+        <v>0.141016385808739</v>
       </c>
       <c r="Q7">
-        <v>9.037225050841327</v>
+        <v>39.10943978121156</v>
       </c>
       <c r="R7">
-        <v>9.037225050841327</v>
+        <v>351.984958030904</v>
       </c>
       <c r="S7">
-        <v>0.03883796043465293</v>
+        <v>0.1123350866237132</v>
       </c>
       <c r="T7">
-        <v>0.03883796043465293</v>
+        <v>0.1123350866237132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>64.06146633333334</v>
+      </c>
+      <c r="H8">
+        <v>192.184399</v>
+      </c>
+      <c r="I8">
+        <v>0.7966101668218448</v>
+      </c>
+      <c r="J8">
+        <v>0.7966101668218449</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.503125</v>
+      </c>
+      <c r="N8">
+        <v>4.509375</v>
+      </c>
+      <c r="O8">
+        <v>0.3472001930423448</v>
+      </c>
+      <c r="P8">
+        <v>0.347200193042345</v>
+      </c>
+      <c r="Q8">
+        <v>96.29239158229169</v>
+      </c>
+      <c r="R8">
+        <v>866.6315242406251</v>
+      </c>
+      <c r="S8">
+        <v>0.276583203700039</v>
+      </c>
+      <c r="T8">
+        <v>0.2765832037000392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>64.06146633333334</v>
+      </c>
+      <c r="H9">
+        <v>192.184399</v>
+      </c>
+      <c r="I9">
+        <v>0.7966101668218448</v>
+      </c>
+      <c r="J9">
+        <v>0.7966101668218449</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.1348576666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.404573</v>
+      </c>
+      <c r="O9">
+        <v>0.03115017573382577</v>
+      </c>
+      <c r="P9">
+        <v>0.03115017573382578</v>
+      </c>
+      <c r="Q9">
+        <v>8.639179872958557</v>
+      </c>
+      <c r="R9">
+        <v>77.75261885662701</v>
+      </c>
+      <c r="S9">
+        <v>0.02481454668785273</v>
+      </c>
+      <c r="T9">
+        <v>0.02481454668785274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.295670666666666</v>
+      </c>
+      <c r="H10">
+        <v>15.887012</v>
+      </c>
+      <c r="I10">
+        <v>0.06585214692489502</v>
+      </c>
+      <c r="J10">
+        <v>0.06585214692489504</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.080793333333334</v>
+      </c>
+      <c r="N10">
+        <v>6.242380000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.4806332454150903</v>
+      </c>
+      <c r="P10">
+        <v>0.4806332454150904</v>
+      </c>
+      <c r="Q10">
+        <v>11.01919621872889</v>
+      </c>
+      <c r="R10">
+        <v>99.17276596856</v>
+      </c>
+      <c r="S10">
+        <v>0.03165073109406365</v>
+      </c>
+      <c r="T10">
+        <v>0.03165073109406367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.295670666666666</v>
+      </c>
+      <c r="H11">
+        <v>15.887012</v>
+      </c>
+      <c r="I11">
+        <v>0.06585214692489502</v>
+      </c>
+      <c r="J11">
+        <v>0.06585214692489504</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.6104986666666666</v>
+      </c>
+      <c r="N11">
+        <v>1.831496</v>
+      </c>
+      <c r="O11">
+        <v>0.141016385808739</v>
+      </c>
+      <c r="P11">
+        <v>0.141016385808739</v>
+      </c>
+      <c r="Q11">
+        <v>3.232999881105777</v>
+      </c>
+      <c r="R11">
+        <v>29.096998929952</v>
+      </c>
+      <c r="S11">
+        <v>0.009286231757094761</v>
+      </c>
+      <c r="T11">
+        <v>0.009286231757094764</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5.295670666666666</v>
+      </c>
+      <c r="H12">
+        <v>15.887012</v>
+      </c>
+      <c r="I12">
+        <v>0.06585214692489502</v>
+      </c>
+      <c r="J12">
+        <v>0.06585214692489504</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.503125</v>
+      </c>
+      <c r="N12">
+        <v>4.509375</v>
+      </c>
+      <c r="O12">
+        <v>0.3472001930423448</v>
+      </c>
+      <c r="P12">
+        <v>0.347200193042345</v>
+      </c>
+      <c r="Q12">
+        <v>7.960054970833333</v>
+      </c>
+      <c r="R12">
+        <v>71.64049473750001</v>
+      </c>
+      <c r="S12">
+        <v>0.02286387812457641</v>
+      </c>
+      <c r="T12">
+        <v>0.02286387812457642</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.295670666666666</v>
+      </c>
+      <c r="H13">
+        <v>15.887012</v>
+      </c>
+      <c r="I13">
+        <v>0.06585214692489502</v>
+      </c>
+      <c r="J13">
+        <v>0.06585214692489504</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.1348576666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.404573</v>
+      </c>
+      <c r="O13">
+        <v>0.03115017573382577</v>
+      </c>
+      <c r="P13">
+        <v>0.03115017573382578</v>
+      </c>
+      <c r="Q13">
+        <v>0.7141617895417778</v>
+      </c>
+      <c r="R13">
+        <v>6.427456105876</v>
+      </c>
+      <c r="S13">
+        <v>0.002051305949160194</v>
+      </c>
+      <c r="T13">
+        <v>0.002051305949160195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>7.367945333333334</v>
+      </c>
+      <c r="H14">
+        <v>22.103836</v>
+      </c>
+      <c r="I14">
+        <v>0.09162107109101347</v>
+      </c>
+      <c r="J14">
+        <v>0.09162107109101349</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.080793333333334</v>
+      </c>
+      <c r="N14">
+        <v>6.242380000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.4806332454150903</v>
+      </c>
+      <c r="P14">
+        <v>0.4806332454150904</v>
+      </c>
+      <c r="Q14">
+        <v>15.33117152996445</v>
+      </c>
+      <c r="R14">
+        <v>137.98054376968</v>
+      </c>
+      <c r="S14">
+        <v>0.04403613274688051</v>
+      </c>
+      <c r="T14">
+        <v>0.04403613274688053</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>7.367945333333334</v>
+      </c>
+      <c r="H15">
+        <v>22.103836</v>
+      </c>
+      <c r="I15">
+        <v>0.09162107109101347</v>
+      </c>
+      <c r="J15">
+        <v>0.09162107109101349</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.6104986666666666</v>
+      </c>
+      <c r="N15">
+        <v>1.831496</v>
+      </c>
+      <c r="O15">
+        <v>0.141016385808739</v>
+      </c>
+      <c r="P15">
+        <v>0.141016385808739</v>
+      </c>
+      <c r="Q15">
+        <v>4.498120802072889</v>
+      </c>
+      <c r="R15">
+        <v>40.483087218656</v>
+      </c>
+      <c r="S15">
+        <v>0.01292007230918026</v>
+      </c>
+      <c r="T15">
+        <v>0.01292007230918026</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>7.367945333333334</v>
+      </c>
+      <c r="H16">
+        <v>22.103836</v>
+      </c>
+      <c r="I16">
+        <v>0.09162107109101347</v>
+      </c>
+      <c r="J16">
+        <v>0.09162107109101349</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.503125</v>
+      </c>
+      <c r="N16">
+        <v>4.509375</v>
+      </c>
+      <c r="O16">
+        <v>0.3472001930423448</v>
+      </c>
+      <c r="P16">
+        <v>0.347200193042345</v>
+      </c>
+      <c r="Q16">
+        <v>11.07494282916667</v>
+      </c>
+      <c r="R16">
+        <v>99.67448546250002</v>
+      </c>
+      <c r="S16">
+        <v>0.03181085356954628</v>
+      </c>
+      <c r="T16">
+        <v>0.03181085356954629</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>7.367945333333334</v>
+      </c>
+      <c r="H17">
+        <v>22.103836</v>
+      </c>
+      <c r="I17">
+        <v>0.09162107109101347</v>
+      </c>
+      <c r="J17">
+        <v>0.09162107109101349</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1348576666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.404573</v>
+      </c>
+      <c r="O17">
+        <v>0.03115017573382577</v>
+      </c>
+      <c r="P17">
+        <v>0.03115017573382578</v>
+      </c>
+      <c r="Q17">
+        <v>0.993623915780889</v>
+      </c>
+      <c r="R17">
+        <v>8.942615242028001</v>
+      </c>
+      <c r="S17">
+        <v>0.002854012465406414</v>
+      </c>
+      <c r="T17">
+        <v>0.002854012465406415</v>
       </c>
     </row>
   </sheetData>
